--- a/data/trans_orig/Q02G_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_R-Habitat-trans_orig.xlsx
@@ -608,7 +608,7 @@
         <v>3.714800055204857</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.457556974146101</v>
+        <v>4.4575569741461</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>2.966775850141204</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.397568403071195</v>
+        <v>2.323704623501873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.919394030452585</v>
+        <v>2.95127694195346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.430836462058465</v>
+        <v>2.461658094711821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.594355089383945</v>
+        <v>3.58000408920063</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.632075376666752</v>
+        <v>2.593131927090091</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.72567825327636</v>
+        <v>3.664964365951559</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.321324267953994</v>
+        <v>7.278134903958792</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.523045086879057</v>
+        <v>6.403066490522552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.657653413736353</v>
+        <v>3.665025324318088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.675527073940793</v>
+        <v>5.81025083148993</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.897898589364962</v>
+        <v>3.970636553845505</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.628208023138766</v>
+        <v>5.578936863221398</v>
       </c>
     </row>
     <row r="7">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>4.050795045596226</v>
+        <v>4.050795045596227</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>4.075392448856829</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.114490917148906</v>
+        <v>3.207805983068539</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.281368404732897</v>
+        <v>2.372341694365712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.792383806567495</v>
+        <v>2.874333967084838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.998387504761656</v>
+        <v>2.982500796630649</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.126441136392318</v>
+        <v>3.116392179069642</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.970139824681676</v>
+        <v>3.043721421153279</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.272074322620177</v>
+        <v>5.305379473864526</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.446620513868696</v>
+        <v>9.537565094471821</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.069544253353007</v>
+        <v>5.279509567460987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.761413500575141</v>
+        <v>4.917536151590145</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.818577769498725</v>
+        <v>4.884699994738062</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.042726412203234</v>
+        <v>5.100034742380542</v>
       </c>
     </row>
     <row r="10">
@@ -781,10 +781,10 @@
         <v>3.691867142854461</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>4.567546545800077</v>
+        <v>4.567546545800076</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.357980677293153</v>
+        <v>3.357980677293154</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.20942979161098</v>
+        <v>2.20558899135295</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1.114013850245487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.835721706627182</v>
+        <v>3.927333250638687</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.6398500979799</v>
+        <v>2.659519131024358</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.697980437769158</v>
+        <v>3.741590012404461</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.490236436365753</v>
+        <v>2.451380419352883</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.172034321657481</v>
+        <v>5.391634233936924</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.641081576293768</v>
+        <v>1.627791516635704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.133698399835799</v>
+        <v>6.10757252489167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.134803953100728</v>
+        <v>5.860660427677522</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.619939855810795</v>
+        <v>5.620983430954108</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.424106200507739</v>
+        <v>5.385030050699329</v>
       </c>
     </row>
     <row r="13">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.395070190418847</v>
+        <v>2.395070190418848</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>2.923453948403689</v>
@@ -863,7 +863,7 @@
         <v>4.232636916158814</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>4.00701015494856</v>
+        <v>4.007010154948559</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>3.809799740678016</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.753359138025745</v>
+        <v>1.761583371246921</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.208417118666481</v>
+        <v>2.177844764960452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.46489311557036</v>
+        <v>3.529704230631603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.124078488765197</v>
+        <v>2.994639324881719</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.169193805664693</v>
+        <v>3.23148648732174</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.984972563162533</v>
+        <v>2.999662355671865</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.790203249751158</v>
+        <v>3.88525826763294</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.95053147103298</v>
+        <v>3.935112858484397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.053499872838767</v>
+        <v>6.123457025925511</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.464040817842662</v>
+        <v>6.330769315801216</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.313346337921043</v>
+        <v>5.190244774773547</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.251170898422736</v>
+        <v>5.462369238030474</v>
       </c>
     </row>
     <row r="16">
@@ -942,13 +942,13 @@
         <v>3.927793035337523</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.046387771740472</v>
+        <v>4.046387771740473</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>3.827727560496572</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.918641669342509</v>
+        <v>3.91864166934251</v>
       </c>
     </row>
     <row r="17">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.928828834564606</v>
+        <v>2.895729127048899</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.830809593444266</v>
+        <v>2.824039725231824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.465944883632257</v>
+        <v>3.406393291777655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.494803660045183</v>
+        <v>3.455412711605845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.40736050369651</v>
+        <v>3.404909386776233</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.488285893476387</v>
+        <v>3.419036698918279</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.349759112272706</v>
+        <v>4.360777909903164</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.929757563725275</v>
+        <v>5.020704576074951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.488359147506339</v>
+        <v>4.520165404940597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.885254197033425</v>
+        <v>4.752269104904605</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.305858065459699</v>
+        <v>4.321688304921881</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.615556331445692</v>
+        <v>4.535169864092125</v>
       </c>
     </row>
     <row r="19">
